--- a/05_Win32Api/011 线程控制 线程Context.xlsx
+++ b/05_Win32Api/011 线程控制 线程Context.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\05_Win32Api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C01A35-A21E-427B-9CD2-B5720DAC6508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC531A9-B17A-4920-80F1-2EBEE13E8DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="164">
   <si>
     <t>线程控制</t>
   </si>
@@ -511,6 +511,26 @@
   </si>
   <si>
     <t>// 需要执行 resume 来进行 -1 操作，计数器为0，线程就会启动。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程安全问题，多个线程同时访问并写入同一个全局变量(+1操作，共20000)，</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果小于20000次</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  时间片到了，将当前线程所有状态保存在Context中，切换到另一个线程执行读写+1操作，</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  当又切回上一个线程，将Context数据全部恢复，前一个线程的读写都是作废的。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  若是在单核cpu运行多线程程序(不能并行执行)，某个线程刚好执行完读取的操作，</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -528,12 +548,14 @@
       <sz val="12"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <i/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -541,6 +563,7 @@
       <sz val="12"/>
       <color indexed="20"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -548,11 +571,13 @@
       <sz val="12"/>
       <color indexed="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1261,15 +1286,15 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="B5:I12"/>
+  <dimension ref="B5:P13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
@@ -1279,12 +1304,12 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>148</v>
       </c>
@@ -1294,15 +1319,76 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H9" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="H10" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="H11" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
         <v>152</v>
       </c>
+      <c r="H12" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="H13" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -1324,8 +1410,8 @@
   </sheetPr>
   <dimension ref="B3:O74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView showGridLines="0" topLeftCell="A41" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -2287,9 +2373,7 @@
   </sheetPr>
   <dimension ref="B3:G104"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
